--- a/biology/Botanique/Ferradou/Ferradou.xlsx
+++ b/biology/Botanique/Ferradou/Ferradou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ferradou N est une variété de raisin de cuve noir. 
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est issu du croisement intra-spécifique entre le fer servadou N et le merlot N, réalisé en 1969 au domaine de la Grande Ferrade, à l'INRA de Bordeaux. Il a été inscrit au catalogue officiel des variétés de vigne en France en 2010. 
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes, de taille moyenne, sont coniques et plutôt courtes. 
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cépage rustique, qui semble peu sensible aux maladies cryptogamiques, sauf vis-à-vis de la pourriture grise en année sensible, à cause de la compacité de ses grappes. En revanche, il est sensible aux maladies du bois : eutypiose, le black-dead-arm et esca. En 2003, il a relativement bien supporté le stress hydrique en culture expérimentale. 
 Son port érigé le rend facile à conduire. Sa production est plus régulière que celle du fer servadou N, mais moindre que celle du merlot N.
@@ -606,7 +624,9 @@
           <t>Aptitudes œnologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La vinification de son raisin donne des vins fins et équilibrés : rondeur, moelleux et fraîcheur. Les arômes sont fruités et peu épicés. En bouche, les tanins sont qualitatifs et la finale de bonne longueur. 
 </t>
